--- a/Question_Sets/Role-specific skills/Technical SEO.xlsx
+++ b/Question_Sets/Role-specific skills/Technical SEO.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "You are an SEO specialist working for a digital marketing agency. Your current project involves analyzing a large dataset of website content to identify words that are semantically related to a specific keyword. The goal is to improve the site's search engine ranking by enhancing keyword relationships.Which method should you employ for this task?", 'ques_type': 2, 'options': ['Latent Semantic Analysis (LSA).', 'Term frequency-inverse document frequency (TF-IDF) analysis.', 'The Bag-of-Words model.', 'The Word2Vec model.'], 'score': 'The Word2Vec model.'}, {'title': 'You are an SEO specialist reviewing a new website to ensure the canonicalization is working correctly. The website features canonicalized pages that contain the same content as root pages, and you want these canonical versions to appear in search results. Which of the following actions should you take?', 'ques_type': 2, 'options': ['Block the canonicalized URL via robots.txt.', 'Use absolute URLs rather than relative URLs.', 'Implement sitewide 301 redirects for duplicate pages.', 'Set the canonicalized URL to noindex.'], 'score': 'Use absolute URLs rather than relative URLs.'}, {'title': 'You are an SEO specialist and need to identify all the webpages of a specific website that a search engine has indexed.Which search query should you use?', 'ques_type': 2, 'options': ['webpage:http://www.example.com', 'site:http://www.example.com', 'list:http:///www.example.com', 'help:http:///www.example.com'], 'score': 'site:http://www.example.com'}, {'title': 'You are an SEO manager for a large e-commerce company. After a major search engine update, you notice that your website page rankings are fluctuating daily.How should you explain this to your less technical colleagues?', 'ques_type': 2, 'options': ['“Flux is a common occurrence between major updates.”', '“Oscillation is typical daily fluctuations.”', '”Derange is a random change in rankings.”', '“Waves are sudden unexpected shifts.”'], 'score': '“Flux is a common occurrence between major updates.”'}]</t>
+    <t>questions = [
+    {
+        "title": "You are an SEO specialist working for a digital marketing agency. Your current project involves analyzing a large dataset of website content to identify words that are semantically related to a specific keyword. The goal is to improve the site's search engine ranking by enhancing keyword relationships.Which method should you employ for this task?",
+        "ques_type": 2,
+        "options": [
+            "Latent Semantic Analysis (LSA).",
+            "Term frequency-inverse document frequency (TF-IDF) analysis.",
+            "The Bag-of-Words model.",
+            "The Word2Vec model."
+        ],
+        "score": "The Word2Vec model."
+    },
+    {
+        "title": "You are an SEO specialist reviewing a new website to ensure the canonicalization is working correctly. The website features canonicalized pages that contain the same content as root pages, and you want these canonical versions to appear in search results. Which of the following actions should you take?",
+        "ques_type": 2,
+        "options": [
+            "Block the canonicalized URL via robots.txt.",
+            "Use absolute URLs rather than relative URLs.",
+            "Implement sitewide 301 redirects for duplicate pages.",
+            "Set the canonicalized URL to noindex."
+        ],
+        "score": "Use absolute URLs rather than relative URLs."
+    },
+    {
+        "title": "You are an SEO specialist and need to identify all the webpages of a specific website that a search engine has indexed.Which search query should you use?",
+        "ques_type": 2,
+        "options": [
+            "webpage:http://www.example.com",
+            "site:http://www.example.com",
+            "list:http:///www.example.com",
+            "help:http:///www.example.com"
+        ],
+        "score": "site:http://www.example.com"
+    },
+    {
+        "title": "You are an SEO manager for a large e-commerce company. After a major search engine update, you notice that your website page rankings are fluctuating daily.How should you explain this to your less technical colleagues?",
+        "ques_type": 2,
+        "options": [
+            "\u201cFlux is a common occurrence between major updates.\u201d",
+            "\u201cOscillation is typical daily fluctuations.\u201d",
+            "\u201dDerange is a random change in rankings.\u201d",
+            "\u201cWaves are sudden unexpected shifts.\u201d"
+        ],
+        "score": "\u201cFlux is a common occurrence between major updates.\u201d"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
